--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H2">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I2">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J2">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.328017</v>
+        <v>0.3541136666666667</v>
       </c>
       <c r="N2">
-        <v>0.984051</v>
+        <v>1.062341</v>
       </c>
       <c r="O2">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="P2">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="Q2">
-        <v>0.259876825861</v>
+        <v>0.09134161367255555</v>
       </c>
       <c r="R2">
-        <v>2.338891432749</v>
+        <v>0.822074523053</v>
       </c>
       <c r="S2">
-        <v>0.0003069863924244001</v>
+        <v>0.00011234302097918</v>
       </c>
       <c r="T2">
-        <v>0.0003069863924244001</v>
+        <v>0.00011234302097918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H3">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I3">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J3">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.552706666666667</v>
+        <v>0.03021466666666667</v>
       </c>
       <c r="N3">
-        <v>7.65812</v>
+        <v>0.090644</v>
       </c>
       <c r="O3">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089572</v>
       </c>
       <c r="P3">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089573</v>
       </c>
       <c r="Q3">
-        <v>2.022423550875556</v>
+        <v>0.007793702050222223</v>
       </c>
       <c r="R3">
-        <v>18.20181195788</v>
+        <v>0.070143318452</v>
       </c>
       <c r="S3">
-        <v>0.00238904145369818</v>
+        <v>9.585642268948285E-06</v>
       </c>
       <c r="T3">
-        <v>0.002389041453698179</v>
+        <v>9.585642268948285E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H4">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I4">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J4">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>185.1323926666666</v>
+        <v>171.9426576666667</v>
       </c>
       <c r="N4">
-        <v>555.3971779999999</v>
+        <v>515.827973</v>
       </c>
       <c r="O4">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891942</v>
       </c>
       <c r="P4">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891944</v>
       </c>
       <c r="Q4">
-        <v>146.6741619192469</v>
+        <v>44.35163420338989</v>
       </c>
       <c r="R4">
-        <v>1320.067457273222</v>
+        <v>399.164707830509</v>
       </c>
       <c r="S4">
-        <v>0.1732627435335286</v>
+        <v>0.05454903161262428</v>
       </c>
       <c r="T4">
-        <v>0.1732627435335286</v>
+        <v>0.05454903161262428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>6.233495</v>
       </c>
       <c r="I5">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J5">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.328017</v>
+        <v>0.3541136666666667</v>
       </c>
       <c r="N5">
-        <v>0.984051</v>
+        <v>1.062341</v>
       </c>
       <c r="O5">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="P5">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="Q5">
-        <v>0.6815641098050002</v>
+        <v>0.7357885901994445</v>
       </c>
       <c r="R5">
-        <v>6.134076988245001</v>
+        <v>6.622097311795001</v>
       </c>
       <c r="S5">
-        <v>0.0008051156796369975</v>
+        <v>0.000904962258728451</v>
       </c>
       <c r="T5">
-        <v>0.0008051156796369976</v>
+        <v>0.000904962258728451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J6">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.552706666666667</v>
+        <v>0.03021466666666667</v>
       </c>
       <c r="N6">
-        <v>7.65812</v>
+        <v>0.090644</v>
       </c>
       <c r="O6">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089572</v>
       </c>
       <c r="P6">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089573</v>
       </c>
       <c r="Q6">
-        <v>5.304094747711113</v>
+        <v>0.06278099119777779</v>
       </c>
       <c r="R6">
-        <v>47.73685272940001</v>
+        <v>0.5650289207800001</v>
       </c>
       <c r="S6">
-        <v>0.006265602584156395</v>
+        <v>7.721569531834103E-05</v>
       </c>
       <c r="T6">
-        <v>0.006265602584156395</v>
+        <v>7.721569531834103E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J7">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.1323926666666</v>
+        <v>171.9426576666667</v>
       </c>
       <c r="N7">
-        <v>555.3971779999999</v>
+        <v>515.827973</v>
       </c>
       <c r="O7">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891942</v>
       </c>
       <c r="P7">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891944</v>
       </c>
       <c r="Q7">
-        <v>384.6739480085678</v>
+        <v>357.2678989506262</v>
       </c>
       <c r="R7">
-        <v>3462.06553207711</v>
+        <v>3215.411090555635</v>
       </c>
       <c r="S7">
-        <v>0.4544063025533641</v>
+        <v>0.439411495519234</v>
       </c>
       <c r="T7">
-        <v>0.4544063025533641</v>
+        <v>0.439411495519234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H8">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I8">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J8">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.328017</v>
+        <v>0.3541136666666667</v>
       </c>
       <c r="N8">
-        <v>0.984051</v>
+        <v>1.062341</v>
       </c>
       <c r="O8">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="P8">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="Q8">
-        <v>0.2572936919859999</v>
+        <v>0.7851617144396666</v>
       </c>
       <c r="R8">
-        <v>2.315643227874</v>
+        <v>7.066455429957</v>
       </c>
       <c r="S8">
-        <v>0.0003039349970304158</v>
+        <v>0.0009656873292555714</v>
       </c>
       <c r="T8">
-        <v>0.0003039349970304158</v>
+        <v>0.0009656873292555716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H9">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I9">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J9">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.552706666666667</v>
+        <v>0.03021466666666667</v>
       </c>
       <c r="N9">
-        <v>7.65812</v>
+        <v>0.090644</v>
       </c>
       <c r="O9">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089572</v>
       </c>
       <c r="P9">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089573</v>
       </c>
       <c r="Q9">
-        <v>2.002320985875556</v>
+        <v>0.06699374159866667</v>
       </c>
       <c r="R9">
-        <v>18.02088887288</v>
+        <v>0.602943674388</v>
       </c>
       <c r="S9">
-        <v>0.00236529476567634</v>
+        <v>8.23970479093267E-05</v>
       </c>
       <c r="T9">
-        <v>0.00236529476567634</v>
+        <v>8.239704790932671E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H10">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>185.1323926666666</v>
+        <v>171.9426576666667</v>
       </c>
       <c r="N10">
-        <v>555.3971779999999</v>
+        <v>515.827973</v>
       </c>
       <c r="O10">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891942</v>
       </c>
       <c r="P10">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891944</v>
       </c>
       <c r="Q10">
-        <v>145.2162443269968</v>
+        <v>381.2414051953357</v>
       </c>
       <c r="R10">
-        <v>1306.946198942972</v>
+        <v>3431.172646758022</v>
       </c>
       <c r="S10">
-        <v>0.1715405397140304</v>
+        <v>0.4688970279803614</v>
       </c>
       <c r="T10">
-        <v>0.1715405397140304</v>
+        <v>0.4688970279803615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H11">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I11">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J11">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.328017</v>
+        <v>0.3541136666666667</v>
       </c>
       <c r="N11">
-        <v>0.984051</v>
+        <v>1.062341</v>
       </c>
       <c r="O11">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="P11">
-        <v>0.001744649556355686</v>
+        <v>0.002054893867096745</v>
       </c>
       <c r="Q11">
-        <v>0.2781842200039999</v>
+        <v>0.05846003504055555</v>
       </c>
       <c r="R11">
-        <v>2.503657980036</v>
+        <v>0.5261403153650001</v>
       </c>
       <c r="S11">
-        <v>0.0003286124872638729</v>
+        <v>7.190125813354246E-05</v>
       </c>
       <c r="T11">
-        <v>0.000328612487263873</v>
+        <v>7.190125813354246E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H12">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I12">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J12">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.552706666666667</v>
+        <v>0.03021466666666667</v>
       </c>
       <c r="N12">
-        <v>7.65812</v>
+        <v>0.090644</v>
       </c>
       <c r="O12">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089572</v>
       </c>
       <c r="P12">
-        <v>0.01357727969436402</v>
+        <v>0.0001753333437089573</v>
       </c>
       <c r="Q12">
-        <v>2.164896066257778</v>
+        <v>0.004988088962222223</v>
       </c>
       <c r="R12">
-        <v>19.48406459632</v>
+        <v>0.04489280066</v>
       </c>
       <c r="S12">
-        <v>0.002557340890833108</v>
+        <v>6.134958212341257E-06</v>
       </c>
       <c r="T12">
-        <v>0.002557340890833108</v>
+        <v>6.134958212341257E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H13">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I13">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J13">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>185.1323926666666</v>
+        <v>171.9426576666667</v>
       </c>
       <c r="N13">
-        <v>555.3971779999999</v>
+        <v>515.827973</v>
       </c>
       <c r="O13">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891942</v>
       </c>
       <c r="P13">
-        <v>0.9846780707492804</v>
+        <v>0.9977697727891944</v>
       </c>
       <c r="Q13">
-        <v>157.0068327295564</v>
+        <v>28.38572678309389</v>
       </c>
       <c r="R13">
-        <v>1413.061494566008</v>
+        <v>255.471541047845</v>
       </c>
       <c r="S13">
-        <v>0.1854684849483573</v>
+        <v>0.03491221767697469</v>
       </c>
       <c r="T13">
-        <v>0.1854684849483573</v>
+        <v>0.03491221767697469</v>
       </c>
     </row>
   </sheetData>
